--- a/pred_ohlcv/54_21/2019-10-24 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>80135.32431573818</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>39785.41124907154</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>49153.98284907154</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>49153.98284907154</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>53049.35344907155</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>56287.24784907155</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>60920.64804907155</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>57100.95464907155</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>74874.26854380839</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>73211.84224380839</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>66034.74794380838</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>66054.64374380838</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>23727.71344380838</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>43833.78184380839</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>57926.37644380839</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>55734.68814380839</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>48655.70264380838</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>48942.73764380839</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>48952.73764380839</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>46452.73764380839</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>49176.10354380839</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>43991.3205438084</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>47794.12013091641</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>47824.81123091641</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>53294.82933091641</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>48545.10683091641</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>48545.10683091641</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>53344.25203091641</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>57255.37733091641</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>57760.08813091641</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>61760.92143091641</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>107130.9180309164</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>125674.2437777178</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>124680.2437777178</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>128630.6040777178</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>128630.6040777178</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>128630.6040777178</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>127237.6040777178</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>126927.8753777178</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>126927.8753777178</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>118737.9431777178</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>118737.9431777178</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>118737.9431777178</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>118737.9431777178</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>116850.6467777178</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>116850.6467777178</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>117502.2165777178</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>115928.5461777178</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>98606.63767771775</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>89595.89147771776</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>68331.14667771776</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>68067.27427771776</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>68067.27427771776</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>64250.75637771776</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>64250.75637771776</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>99631.44757771776</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>113325.2303777178</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>92807.51257771776</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>90292.46557771775</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>84516.45537771775</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>84516.45537771775</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>84531.45537771775</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>78618.77947771775</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>80876.79667771775</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>449770.8291777178</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>419421.2941777178</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>419574.0278777178</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>419574.0278777178</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>416749.3328777178</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>418099.5878777178</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>415651.3940777178</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>415675.3940777178</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>415675.3940777178</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>410894.7711777178</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>273482.9286793633</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>274278.2163793633</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>274218.2088793633</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-24 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 BAT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>80149.06901573818</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>80149.06901573818</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>77968.37911573818</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>77988.12911573818</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>66829.93151573819</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>66829.93151573819</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>66829.93151573819</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>57779.26661573819</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>57779.26661573819</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>49431.20354907153</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>49431.20354907153</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>50434.58284907153</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>46884.98594907153</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>46884.98594907153</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>43601.18944907153</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>49497.79104907154</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>49497.79104907154</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>48456.00184907154</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>48456.00184907154</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>49135.57844907154</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>52385.28144907154</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>48029.89374907154</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>37676.64684907154</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>39515.23954907154</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>39785.41124907154</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>49153.98284907154</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>49153.98284907154</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>53049.35344907155</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>56287.24784907155</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>28196.61594907155</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>40583.18454907156</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>40382.27824907155</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>40972.47674907155</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>40972.47674907155</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>39779.47674907155</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>39795.39134907155</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>38300.92924907155</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>38300.92924907155</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>38288.52394907155</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>65993.61514907156</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>61195.69204907156</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>58266.93694907155</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>58266.93694907155</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>57100.95464907155</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>57100.95464907155</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>57161.11254380839</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>74840.96794380838</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>74840.96794380838</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>74959.84664380839</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>74959.84664380839</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>74959.84664380839</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>74959.84664380839</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>74593.50064380838</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>79810.91434380838</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>79810.91434380838</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>50341.84224380839</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>50341.84224380839</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>50341.84224380839</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>73211.84224380839</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>90640.69764380839</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>83774.15854380839</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>65572.05424380839</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>67468.23084380839</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>66034.74794380838</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>66034.74794380838</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>66054.64374380838</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>66054.64374380838</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>23591.98404380838</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>23727.71344380838</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>28373.78184380839</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>43833.78184380839</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>57946.52084380839</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>57926.37644380839</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>55734.68814380839</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>50700.88954380839</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>48942.73764380839</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>48952.73764380839</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>46452.73764380839</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>48073.80004380839</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>49176.10354380839</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>49176.10354380839</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>43941.4205438084</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>43941.4205438084</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>43941.4205438084</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>43991.3205438084</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>41791.3205438084</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>41791.3205438084</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>48760.10233091641</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>48960.10233091641</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>48960.10233091641</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>47794.12013091641</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>47794.12013091641</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>47824.81123091641</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>53294.82933091641</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>48545.10683091641</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>48545.10683091641</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>53344.25203091641</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>57255.37733091641</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>57760.08813091641</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>61760.92143091641</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>107130.9180309164</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>113644.7201777178</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>125674.2437777178</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>124680.2437777178</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>128630.6040777178</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>128630.6040777178</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>128630.6040777178</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>127237.6040777178</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>126927.8753777178</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>126927.8753777178</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>119657.8753777178</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>113325.2303777178</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>92807.51257771776</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>90292.46557771775</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>88223.58837771775</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>419421.2941777178</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>419574.0278777178</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>419574.0278777178</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>416749.3328777178</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>418099.5878777178</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>415651.3940777178</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>415675.3940777178</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>415675.3940777178</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>410894.7711777178</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
